--- a/upload/template/hauthOrgExportTemplate.xlsx
+++ b/upload/template/hauthOrgExportTemplate.xlsx
@@ -495,7 +495,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I2" sqref="I2"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
@@ -503,8 +503,8 @@
     <col min="1" max="1" width="20.59765625" customWidth="1"/>
     <col min="2" max="2" width="20.3984375" customWidth="1"/>
     <col min="3" max="3" width="18.59765625" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="9.3984375" customWidth="1"/>
     <col min="6" max="6" width="10.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.9296875" customWidth="1"/>
     <col min="8" max="8" width="11.9296875" customWidth="1"/>
@@ -522,10 +522,10 @@
         <v>3</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>0</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>5</v>
@@ -586,10 +586,10 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
       <formula1>"节点,叶子"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D3:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E1048576">
       <formula1>"成本中心,利润中心"</formula1>
     </dataValidation>
   </dataValidations>
